--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,16 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>chaos</t>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
@@ -67,24 +61,12 @@
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -97,139 +79,127 @@
     <t>negative</t>
   </si>
   <si>
-    <t>proud</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
@@ -238,19 +208,16 @@
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>share</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -608,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.92</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.5787671232876712</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.96875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -995,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7272727272727273</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.925</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>424</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.8303571428571429</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4285714285714285</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,675 +1194,531 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>239</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L15">
+        <v>44</v>
+      </c>
+      <c r="M15">
+        <v>44</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7421875</v>
+      </c>
+      <c r="L16">
+        <v>95</v>
+      </c>
+      <c r="M16">
+        <v>95</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L17">
+        <v>37</v>
+      </c>
+      <c r="M17">
+        <v>37</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L18">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.71875</v>
+      </c>
+      <c r="L19">
+        <v>115</v>
+      </c>
+      <c r="M19">
+        <v>115</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>7</v>
       </c>
-      <c r="D14">
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>7</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="L22">
+        <v>98</v>
+      </c>
+      <c r="M22">
+        <v>98</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="L23">
+        <v>73</v>
+      </c>
+      <c r="M23">
+        <v>73</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L25">
+        <v>18</v>
+      </c>
+      <c r="M25">
+        <v>18</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L26">
+        <v>41</v>
+      </c>
+      <c r="M26">
+        <v>41</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L27">
+        <v>56</v>
+      </c>
+      <c r="M27">
+        <v>56</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L28">
+        <v>28</v>
+      </c>
+      <c r="M28">
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.5319148936170213</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
         <v>14</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.3004291845493562</v>
-      </c>
-      <c r="C15">
-        <v>70</v>
-      </c>
-      <c r="D15">
-        <v>70</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>163</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15">
-        <v>0.875</v>
-      </c>
-      <c r="L15">
-        <v>49</v>
-      </c>
-      <c r="M15">
-        <v>49</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>19</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
-        <v>0.8703703703703703</v>
-      </c>
-      <c r="L16">
-        <v>47</v>
-      </c>
-      <c r="M16">
-        <v>47</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="M31">
+        <v>14</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="L32">
         <v>17</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L17">
-        <v>44</v>
-      </c>
-      <c r="M17">
-        <v>44</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C18">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>67</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>9</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.1125</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>71</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L19">
-        <v>22</v>
-      </c>
-      <c r="M19">
-        <v>22</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.08181818181818182</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>101</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L20">
-        <v>41</v>
-      </c>
-      <c r="M20">
-        <v>41</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>0.75</v>
-      </c>
-      <c r="L22">
-        <v>9</v>
-      </c>
-      <c r="M22">
-        <v>9</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24">
-        <v>0.726027397260274</v>
-      </c>
-      <c r="L24">
-        <v>53</v>
-      </c>
-      <c r="M24">
-        <v>53</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L25">
-        <v>21</v>
-      </c>
-      <c r="M25">
-        <v>21</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <v>0.72</v>
-      </c>
-      <c r="L26">
+      <c r="M32">
+        <v>17</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>18</v>
-      </c>
-      <c r="M26">
-        <v>18</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L27">
-        <v>28</v>
-      </c>
-      <c r="M27">
-        <v>28</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L28">
-        <v>12</v>
-      </c>
-      <c r="M28">
-        <v>12</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29">
-        <v>0.7</v>
-      </c>
-      <c r="L29">
-        <v>7</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="M30">
-        <v>9</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="L31">
-        <v>38</v>
-      </c>
-      <c r="M31">
-        <v>38</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L32">
-        <v>11</v>
-      </c>
-      <c r="M32">
-        <v>11</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.4830287206266319</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1907,15 +1730,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.6153846153846154</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L34">
         <v>16</v>
@@ -1933,21 +1756,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.5833333333333334</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1959,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.5833333333333334</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1985,15 +1808,15 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.5666666666666667</v>
+        <v>0.425</v>
       </c>
       <c r="L37">
         <v>17</v>
@@ -2011,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.5600000000000001</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2037,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2063,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5384615384615384</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2089,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.5263157894736842</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2115,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.5211267605633803</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L42">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2141,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.4930555555555556</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L43">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M43">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2167,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>73</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.4571428571428571</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2193,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.4545454545454545</v>
+        <v>0.28125</v>
       </c>
       <c r="L45">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2219,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.45</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2245,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.4108527131782946</v>
+        <v>0.02125279642058166</v>
       </c>
       <c r="L47">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2271,189 +2094,59 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>76</v>
+        <v>875</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.3928571428571428</v>
+        <v>0.006069094304388422</v>
       </c>
       <c r="L48">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.375</v>
+        <v>0.005473277527366388</v>
       </c>
       <c r="L49">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K50">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="L50">
-        <v>12</v>
-      </c>
-      <c r="M50">
-        <v>12</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K51">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="L51">
-        <v>28</v>
-      </c>
-      <c r="M51">
-        <v>28</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K52">
-        <v>0.28</v>
-      </c>
-      <c r="L52">
-        <v>7</v>
-      </c>
-      <c r="M52">
-        <v>7</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K53">
-        <v>0.21875</v>
-      </c>
-      <c r="L53">
-        <v>7</v>
-      </c>
-      <c r="M53">
-        <v>7</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K54">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="L54">
-        <v>8</v>
-      </c>
-      <c r="M54">
-        <v>8</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>30</v>
+        <v>3089</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,15 +52,18 @@
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -79,81 +82,81 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
@@ -163,54 +166,51 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>33</v>
@@ -665,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,16 +718,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9473684210526315</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -794,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6923076923076923</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L6">
         <v>24</v>
       </c>
-      <c r="K6">
-        <v>0.9322033898305084</v>
-      </c>
-      <c r="L6">
-        <v>55</v>
-      </c>
       <c r="M6">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6111111111111112</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9130434782608695</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5787671232876712</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4482758620689655</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8846153846153846</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,49 +997,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L10">
+        <v>97</v>
+      </c>
+      <c r="M10">
+        <v>97</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>15</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
-      <c r="M10">
-        <v>23</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1782945736434109</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C11">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>424</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8303571428571429</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1587301587301587</v>
+        <v>0.1957364341085271</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>159</v>
+        <v>415</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8292682926829268</v>
+        <v>0.8046875</v>
       </c>
       <c r="L12">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.08724832214765101</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7833333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.05158730158730158</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1212,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,21 +1239,45 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>236</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7586206896551724</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7421875</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1288,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7254901960784313</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1314,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1340,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.71875</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1366,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.725</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1392,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6956521739130435</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1418,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6901408450704225</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L22">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="M22">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1444,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.6886792452830188</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L23">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1470,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1496,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.6666666666666666</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1522,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6507936507936508</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1548,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.5957446808510638</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L27">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1574,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1600,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.5319148936170213</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1626,12 +1653,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>0.5208333333333334</v>
@@ -1657,16 +1684,16 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>0.5</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1678,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.4857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1704,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4830287206266319</v>
+        <v>0.4699738903394256</v>
       </c>
       <c r="L33">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M33">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1730,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4705882352941176</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1756,21 +1783,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4529411764705882</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L35">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M35">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1782,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4382022471910113</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1808,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.425</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1834,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.423728813559322</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L38">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1860,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>170</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
         <v>0.4</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1886,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.358974358974359</v>
+        <v>0.4</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1912,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.3561643835616438</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1938,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.3488372093023256</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1964,21 +1991,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.3389121338912134</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L43">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M43">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1990,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.3230769230769231</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2016,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.28125</v>
+        <v>0.296875</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2042,21 +2069,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.2142857142857143</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2068,85 +2095,85 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>55</v>
+        <v>876</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.02125279642058166</v>
+        <v>0.00841908325537886</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>875</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.006069094304388422</v>
+        <v>0.004511762810183693</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>2129</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.005473277527366388</v>
+        <v>0.004379105411323116</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M49">
         <v>18</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>3089</v>
+        <v>3183</v>
       </c>
     </row>
   </sheetData>
